--- a/Kabasuji/DayToDayCodeCoverage.xlsx
+++ b/Kabasuji/DayToDayCodeCoverage.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tommy\git\Kabasuji\Kabasuji\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="5910"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>entity</t>
   </si>
@@ -36,9 +32,6 @@
   </si>
   <si>
     <t>move</t>
-  </si>
-  <si>
-    <t>toBeDeleted</t>
   </si>
   <si>
     <t>view</t>
@@ -367,7 +360,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,22 +432,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="B8" s="2">
         <v>0.122</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Kabasuji/DayToDayCodeCoverage.xlsx
+++ b/Kabasuji/DayToDayCodeCoverage.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Calvin/git/Kabasuji/Kabasuji/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="5910"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21580" windowHeight="7120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -43,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -357,19 +364,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>42482</v>
       </c>
@@ -392,56 +399,72 @@
         <v>42488</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>0.52700000000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D2" s="2">
+        <v>0.33800000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="2">
+        <v>0.51700000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2">
         <v>0.122</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25"/>
+      <c r="D8" s="2">
+        <v>0.17100000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Kabasuji/DayToDayCodeCoverage.xlsx
+++ b/Kabasuji/DayToDayCodeCoverage.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Calvin/git/Kabasuji/Kabasuji/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21580" windowHeight="7120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="5895"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -50,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -367,16 +363,16 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>42482</v>
       </c>
@@ -399,66 +395,84 @@
         <v>42488</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>0.52700000000000002</v>
       </c>
+      <c r="C2" s="2">
+        <v>0.52700000000000002</v>
+      </c>
       <c r="D2" s="2">
         <v>0.33800000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
       <c r="D3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
       </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
       <c r="D5" s="2">
         <v>0.51700000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
       </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2">
+        <v>0.122</v>
+      </c>
+      <c r="C8" s="2">
         <v>0.122</v>
       </c>
       <c r="D8" s="2">

--- a/Kabasuji/DayToDayCodeCoverage.xlsx
+++ b/Kabasuji/DayToDayCodeCoverage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="5895"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24180" windowHeight="4980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,13 +363,14 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -408,6 +409,9 @@
       <c r="D2" s="2">
         <v>0.33800000000000002</v>
       </c>
+      <c r="E2" s="2">
+        <v>0.70099999999999996</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -422,6 +426,9 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
+      <c r="E3" s="2">
+        <v>3.4000000000000002E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -436,6 +443,9 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
+      <c r="E4" s="2">
+        <v>3.4000000000000002E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -450,6 +460,9 @@
       <c r="D5" s="2">
         <v>0.51700000000000002</v>
       </c>
+      <c r="E5" s="2">
+        <v>0.17100000000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -464,6 +477,9 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
+      <c r="E6" s="2">
+        <v>0.379</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -477,6 +493,9 @@
       </c>
       <c r="D8" s="2">
         <v>0.17100000000000001</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.17699999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Kabasuji/DayToDayCodeCoverage.xlsx
+++ b/Kabasuji/DayToDayCodeCoverage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24180" windowHeight="4980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="5160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>entity</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>^I feel like this is wrong, but it's what my computer says. -LilyAnne</t>
   </si>
 </sst>
 </file>
@@ -360,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,6 +415,9 @@
       <c r="E2" s="2">
         <v>0.70099999999999996</v>
       </c>
+      <c r="F2" s="2">
+        <v>0.69399999999999995</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -429,6 +435,9 @@
       <c r="E3" s="2">
         <v>3.4000000000000002E-2</v>
       </c>
+      <c r="F3" s="2">
+        <v>0.112</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -446,6 +455,9 @@
       <c r="E4" s="2">
         <v>3.4000000000000002E-2</v>
       </c>
+      <c r="F4" s="2">
+        <v>0.46600000000000003</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -463,6 +475,9 @@
       <c r="E5" s="2">
         <v>0.17100000000000001</v>
       </c>
+      <c r="F5" s="2">
+        <v>0.17199999999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -480,6 +495,9 @@
       <c r="E6" s="2">
         <v>0.379</v>
       </c>
+      <c r="F6" s="2">
+        <v>0.39100000000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -496,6 +514,14 @@
       </c>
       <c r="E8" s="2">
         <v>0.17699999999999999</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.44700000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Kabasuji/DayToDayCodeCoverage.xlsx
+++ b/Kabasuji/DayToDayCodeCoverage.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>entity</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>total</t>
-  </si>
-  <si>
-    <t>^I feel like this is wrong, but it's what my computer says. -LilyAnne</t>
   </si>
 </sst>
 </file>
@@ -415,9 +412,7 @@
       <c r="E2" s="2">
         <v>0.70099999999999996</v>
       </c>
-      <c r="F2" s="2">
-        <v>0.69399999999999995</v>
-      </c>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -435,9 +430,7 @@
       <c r="E3" s="2">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="F3" s="2">
-        <v>0.112</v>
-      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -455,9 +448,7 @@
       <c r="E4" s="2">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="F4" s="2">
-        <v>0.46600000000000003</v>
-      </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -475,9 +466,7 @@
       <c r="E5" s="2">
         <v>0.17100000000000001</v>
       </c>
-      <c r="F5" s="2">
-        <v>0.17199999999999999</v>
-      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -495,9 +484,7 @@
       <c r="E6" s="2">
         <v>0.379</v>
       </c>
-      <c r="F6" s="2">
-        <v>0.39100000000000001</v>
-      </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -515,15 +502,9 @@
       <c r="E8" s="2">
         <v>0.17699999999999999</v>
       </c>
-      <c r="F8" s="2">
-        <v>0.44700000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
-    </row>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Kabasuji/DayToDayCodeCoverage.xlsx
+++ b/Kabasuji/DayToDayCodeCoverage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="5160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="5145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>entity</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>Serializers</t>
   </si>
 </sst>
 </file>
@@ -363,7 +366,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,7 +415,9 @@
       <c r="E2" s="2">
         <v>0.70099999999999996</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2">
+        <v>0.61299999999999999</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -430,7 +435,9 @@
       <c r="E3" s="2">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>8.6999999999999994E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -448,7 +455,9 @@
       <c r="E4" s="2">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>0.46100000000000002</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -466,7 +475,9 @@
       <c r="E5" s="2">
         <v>0.17100000000000001</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>0.29099999999999998</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -484,27 +495,41 @@
       <c r="E6" s="2">
         <v>0.379</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.3000000000000001E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="2">
         <v>0.122</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C9" s="2">
         <v>0.122</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="2">
         <v>0.17100000000000001</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E9" s="2">
         <v>0.17699999999999999</v>
       </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25"/>
+      <c r="F9" s="2">
+        <v>0.434</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Kabasuji/DayToDayCodeCoverage.xlsx
+++ b/Kabasuji/DayToDayCodeCoverage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="5145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18480" windowHeight="5160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -366,7 +366,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -374,6 +374,7 @@
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -418,6 +419,9 @@
       <c r="F2" s="2">
         <v>0.61299999999999999</v>
       </c>
+      <c r="G2" s="2">
+        <v>0.29299999999999998</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -438,6 +442,9 @@
       <c r="F3" s="2">
         <v>8.6999999999999994E-2</v>
       </c>
+      <c r="G3" s="2">
+        <v>9.3000000000000013E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -458,6 +465,9 @@
       <c r="F4" s="2">
         <v>0.46100000000000002</v>
       </c>
+      <c r="G4" s="2">
+        <v>0.89700000000000002</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -478,6 +488,9 @@
       <c r="F5" s="2">
         <v>0.29099999999999998</v>
       </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -498,6 +511,9 @@
       <c r="F6" s="2">
         <v>0.41499999999999998</v>
       </c>
+      <c r="G6" s="2">
+        <v>0.41499999999999998</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -506,6 +522,9 @@
       <c r="F7" s="2">
         <v>1.3000000000000001E-2</v>
       </c>
+      <c r="G7">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F8" s="2"/>
@@ -528,6 +547,9 @@
       </c>
       <c r="F9" s="2">
         <v>0.434</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.66299999999999992</v>
       </c>
     </row>
   </sheetData>

--- a/Kabasuji/DayToDayCodeCoverage.xlsx
+++ b/Kabasuji/DayToDayCodeCoverage.xlsx
@@ -366,7 +366,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,7 +420,7 @@
         <v>0.61299999999999999</v>
       </c>
       <c r="G2" s="2">
-        <v>0.29299999999999998</v>
+        <v>0.75600000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -489,7 +489,7 @@
         <v>0.29099999999999998</v>
       </c>
       <c r="G5" s="2">
-        <v>0</v>
+        <v>0.29099999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -522,8 +522,8 @@
       <c r="F7" s="2">
         <v>1.3000000000000001E-2</v>
       </c>
-      <c r="G7">
-        <v>1.3</v>
+      <c r="G7" s="2">
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -549,7 +549,7 @@
         <v>0.434</v>
       </c>
       <c r="G9" s="2">
-        <v>0.66299999999999992</v>
+        <v>0.748</v>
       </c>
     </row>
   </sheetData>

--- a/Kabasuji/DayToDayCodeCoverage.xlsx
+++ b/Kabasuji/DayToDayCodeCoverage.xlsx
@@ -366,7 +366,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,7 +443,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="G3" s="2">
-        <v>9.3000000000000013E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -466,7 +466,7 @@
         <v>0.46100000000000002</v>
       </c>
       <c r="G4" s="2">
-        <v>0.89700000000000002</v>
+        <v>0.88900000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -512,7 +512,7 @@
         <v>0.41499999999999998</v>
       </c>
       <c r="G6" s="2">
-        <v>0.41499999999999998</v>
+        <v>0.41399999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -549,7 +549,7 @@
         <v>0.434</v>
       </c>
       <c r="G9" s="2">
-        <v>0.748</v>
+        <v>0.72199999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Kabasuji/DayToDayCodeCoverage.xlsx
+++ b/Kabasuji/DayToDayCodeCoverage.xlsx
@@ -366,7 +366,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,7 +420,7 @@
         <v>0.61299999999999999</v>
       </c>
       <c r="G2" s="2">
-        <v>0.75600000000000001</v>
+        <v>0.79500000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -549,7 +549,7 @@
         <v>0.434</v>
       </c>
       <c r="G9" s="2">
-        <v>0.72199999999999998</v>
+        <v>0.72899999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Kabasuji/DayToDayCodeCoverage.xlsx
+++ b/Kabasuji/DayToDayCodeCoverage.xlsx
@@ -366,7 +366,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,7 +420,7 @@
         <v>0.61299999999999999</v>
       </c>
       <c r="G2" s="2">
-        <v>0.79500000000000004</v>
+        <v>0.75600000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -549,7 +549,7 @@
         <v>0.434</v>
       </c>
       <c r="G9" s="2">
-        <v>0.72899999999999998</v>
+        <v>0.72199999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Kabasuji/DayToDayCodeCoverage.xlsx
+++ b/Kabasuji/DayToDayCodeCoverage.xlsx
@@ -366,7 +366,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,7 +443,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="G3" s="2">
-        <v>6.9000000000000006E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -466,7 +466,7 @@
         <v>0.46100000000000002</v>
       </c>
       <c r="G4" s="2">
-        <v>0.88900000000000001</v>
+        <v>0.89600000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -512,7 +512,7 @@
         <v>0.41499999999999998</v>
       </c>
       <c r="G6" s="2">
-        <v>0.41399999999999998</v>
+        <v>0.29799999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -549,7 +549,7 @@
         <v>0.434</v>
       </c>
       <c r="G9" s="2">
-        <v>0.72899999999999998</v>
+        <v>0.72599999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Kabasuji/DayToDayCodeCoverage.xlsx
+++ b/Kabasuji/DayToDayCodeCoverage.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Calvin/git/Kabasuji/Kabasuji/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18480" windowHeight="5160"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18100" windowHeight="8360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -49,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -366,18 +370,18 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>42482</v>
       </c>
@@ -400,7 +404,7 @@
         <v>42488</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -422,8 +426,11 @@
       <c r="G2" s="2">
         <v>0.79500000000000004</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="2">
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -445,8 +452,11 @@
       <c r="G3" s="2">
         <v>7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="2">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -468,8 +478,11 @@
       <c r="G4" s="2">
         <v>0.89600000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="2">
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -491,8 +504,11 @@
       <c r="G5" s="2">
         <v>0.29099999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="2">
+        <v>0.83899999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -514,8 +530,11 @@
       <c r="G6" s="2">
         <v>0.29799999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="2">
+        <v>0.32600000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -525,11 +544,14 @@
       <c r="G7" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -550,6 +572,9 @@
       </c>
       <c r="G9" s="2">
         <v>0.72599999999999998</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>

--- a/Kabasuji/DayToDayCodeCoverage.xlsx
+++ b/Kabasuji/DayToDayCodeCoverage.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Calvin/git/Kabasuji/Kabasuji/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18100" windowHeight="8360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15285" windowHeight="5160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -53,7 +49,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -367,21 +363,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>42482</v>
       </c>
@@ -403,8 +399,11 @@
       <c r="H1" s="1">
         <v>42488</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="1">
+        <v>42490</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -429,8 +428,11 @@
       <c r="H2" s="2">
         <v>0.88500000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="2">
+        <v>0.72299999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -455,8 +457,11 @@
       <c r="H3" s="2">
         <v>6.6000000000000003E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="2">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -481,8 +486,11 @@
       <c r="H4" s="2">
         <v>0.88500000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="2">
+        <v>0.76400000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -507,8 +515,11 @@
       <c r="H5" s="2">
         <v>0.83899999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="2">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -533,8 +544,11 @@
       <c r="H6" s="2">
         <v>0.32600000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="2">
+        <v>0.47099999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -547,11 +561,14 @@
       <c r="H7" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="2">
+        <v>1.3000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -575,6 +592,9 @@
       </c>
       <c r="H9" s="2">
         <v>0.73</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.626</v>
       </c>
     </row>
   </sheetData>

--- a/Kabasuji/DayToDayCodeCoverage.xlsx
+++ b/Kabasuji/DayToDayCodeCoverage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15285" windowHeight="5160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18060" windowHeight="5160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -375,9 +375,10 @@
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>42482</v>
       </c>
@@ -402,8 +403,11 @@
       <c r="I1" s="1">
         <v>42490</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -431,8 +435,11 @@
       <c r="I2" s="2">
         <v>0.72299999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="2">
+        <v>0.72299999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -460,8 +467,11 @@
       <c r="I3" s="2">
         <v>0.107</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="2">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -489,8 +499,11 @@
       <c r="I4" s="2">
         <v>0.76400000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="2">
+        <v>0.81900000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -518,8 +531,11 @@
       <c r="I5" s="2">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="2">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -547,8 +563,11 @@
       <c r="I6" s="2">
         <v>0.47099999999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="2">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -564,11 +583,15 @@
       <c r="I7" s="2">
         <v>1.3000000000000001E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -595,6 +618,9 @@
       </c>
       <c r="I9" s="2">
         <v>0.626</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.70099999999999996</v>
       </c>
     </row>
   </sheetData>
